--- a/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2021-2.xlsx
+++ b/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2021-2.xlsx
@@ -64,34 +64,40 @@
     <t>Lesiones Leves.</t>
   </si>
   <si>
+    <t>Faltas Al Regimen Penitenciario</t>
+  </si>
+  <si>
     <t>Trafico Ilícito De Drogas (Art. 3).</t>
   </si>
   <si>
-    <t>Faltas Al Regimen Penitenciario</t>
-  </si>
-  <si>
     <t>Conduc.ebriedad Susp.lic. Art.196Y209 Inc.2 Ley.transito.</t>
   </si>
   <si>
     <t>Conduc.vehic Durante Vig Alg.sanci Impuest Art209 Ley 18290.</t>
   </si>
   <si>
+    <t>Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
+  </si>
+  <si>
+    <t>Trafico De Pequeñas Cantidades (Art. 4).</t>
+  </si>
+  <si>
+    <t>Daños Simples.</t>
+  </si>
+  <si>
     <t>Porte De Arma Cortante O Punzante (288 Bis).</t>
   </si>
   <si>
-    <t>Daños Simples.</t>
-  </si>
-  <si>
-    <t>Trafico De Pequeñas Cantidades (Art. 4).</t>
-  </si>
-  <si>
-    <t>Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
+    <t>Desacato (Art. 240 Codigo De Procedimiento Civil).</t>
+  </si>
+  <si>
+    <t>Robo En Lugar No Habitado.</t>
   </si>
   <si>
     <t>Hurto Falta (494 Bis Codigo Penal).</t>
   </si>
   <si>
-    <t>Desacato (Art. 240 Codigo De Procedimiento Civil).</t>
+    <t>Estafas Y Otras Defraudaciones Contra Particulares</t>
   </si>
   <si>
     <t>Falsificacion O Uso Malicioso De Doc Públ Art. 193,194,196</t>
@@ -100,16 +106,10 @@
     <t>Receptacion. Art. 456 Bis A.</t>
   </si>
   <si>
-    <t>Estafas Y Otras Defraudaciones Contra Particulares</t>
-  </si>
-  <si>
-    <t>Robo En Lugar No Habitado.</t>
+    <t>Consumo/Porte En Lug.pub.o Priv.c/Previo Concierto(Art.50).</t>
   </si>
   <si>
     <t>Contrab. Infrac A La Ord. De Aduan Art 168. Ley 20.780</t>
-  </si>
-  <si>
-    <t>Consumo/Porte En Lug.pub.o Priv.c/Previo Concierto(Art.50).</t>
   </si>
   <si>
     <t>Robo Por Sorpresa.</t>
@@ -815,7 +815,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>97</v>
@@ -971,7 +971,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>97</v>
@@ -1101,7 +1101,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>97</v>
@@ -1153,7 +1153,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>97</v>
